--- a/listOfStocks.xlsx
+++ b/listOfStocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>CTIC</t>
   </si>
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -671,87 +671,87 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -761,90 +761,58 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A46">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/listOfStocks.xlsx
+++ b/listOfStocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>CTIC</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>PLUG</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>TWTR</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>FB</t>
   </si>
 </sst>
 </file>
@@ -552,265 +564,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A46">
+  <sortState ref="A1:A61">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/listOfStocks.xlsx
+++ b/listOfStocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20320" yWindow="0" windowWidth="8000" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="9000" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>CTIC</t>
   </si>
@@ -196,16 +196,62 @@
   </si>
   <si>
     <t>FB</t>
+  </si>
+  <si>
+    <t>EXAS</t>
+  </si>
+  <si>
+    <t>GPRO</t>
+  </si>
+  <si>
+    <t>INFN</t>
+  </si>
+  <si>
+    <t>RLYP</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>SRPT</t>
+  </si>
+  <si>
+    <t>SSRI</t>
+  </si>
+  <si>
+    <t>SWHC</t>
+  </si>
+  <si>
+    <t>VIAV</t>
+  </si>
+  <si>
+    <t>WETF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,13 +274,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,307 +614,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -872,6 +1179,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
